--- a/main_data.xlsx
+++ b/main_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKU-Z\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKU-Z\Desktop\【同步】课程资料\3A-批判性思维与学术写作 [2.0]\Project portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC2399-257F-4C2D-B7CF-FD47BB03BF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F802AB-9E34-4460-BA92-DC312D0091F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,6 +365,1099 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$I$2:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>3.0966665999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8504852999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6563635000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0203113999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6516966999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6677523000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5383582000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2765217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1593913999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0749997999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5341095999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0045961999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0358771999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8527455000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5698924000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2532215000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1447896999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0152035000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9144494999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2249999000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8326669000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4896393000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4883331999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6804315999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9792309000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5675001000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0841668000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.073607</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5112962999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7839679999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8116665000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3446283000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7874999000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3095236000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5132074000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5675001000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0984696999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.1279998000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6260640999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6217036</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8961646999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.1461344000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5349029999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.3308457999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5275002000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3323321000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3502076000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.1358256000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1960001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1079749999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7820001000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7919998000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0250001000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5380000999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$J$2:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>6.8299998999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8902912000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3645452999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4597157999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2644710999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9973941000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6736202000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5469999000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3773913000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8888888000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5679997999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0890183000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2672357999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6477494000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2545757000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5772237999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7512888999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9163326999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2748894999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7824998000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.260745</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6366668000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1540002999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9961628999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6440001000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9016666000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8859691999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8492308</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2835001999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.1408334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3128285000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6516051000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5872655</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8299998999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3851237000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0933332</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4182195999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7773581000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3158336000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0552229999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.0799998999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.7177477000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.6232252000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.9420017999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.2169356000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5290160000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3963513000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7125000999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5565566999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5867218999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.6928349000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.7719997999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.9968637999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.6126670999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.3419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.4166664999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2F1D-481B-9B94-550F078EDB6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.30000000000000004"/>
+            <c:backward val="0.4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$I$2:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>3.0966665999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8504852999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6563635000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0203113999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6516966999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6677523000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5383582000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2765217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1593913999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0749997999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5341095999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0045961999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0358771999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8527455000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5698924000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2532215000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1447896999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0152035000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9144494999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2249999000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8326669000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4896393000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4883331999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6804315999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9792309000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5675001000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0841668000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.073607</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5112962999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7839679999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8116665000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3446283000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7874999000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3095236000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5132074000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5675001000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0984696999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.1279998000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6260640999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6217036</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8961646999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.1461344000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5349029999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.3308457999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5275002000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3323321000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3502076000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.1358256000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1960001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1079749999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7820001000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7919998000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0250001000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5380000999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$J$2:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>6.8299998999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8902912000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3645452999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4597157999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2644710999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9973941000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6736202000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5469999000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3773913000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8888888000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5679997999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0890183000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2672357999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6477494000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2545757000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5772237999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7512888999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9163326999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2748894999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7824998000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.260745</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6366668000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1540002999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9961628999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6440001000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9016666000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8859691999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8492308</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2835001999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.1408334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3128285000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6516051000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.5872655</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8299998999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3851237000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0933332</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4182195999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7773581000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3158336000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0552229999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.0799998999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.7177477000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.6232252000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.9420017999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.2169356000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5290160000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3963513000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7125000999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5565566999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5867218999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.6928349000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.7719997999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.9968637999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.6126670999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.3419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.4166664999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2F1D-481B-9B94-550F078EDB6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1428521808"/>
+        <c:axId val="1428522224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1428521808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.5"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>Scientific knowledge acquisition</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" i="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428522224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1428522224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>Evaluation on science</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" i="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428521808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>169296</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503766</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59423</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752AAA4D-96C2-47EC-85D9-E4A5F5A42486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,11 +1725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="290" zoomScaleNormal="36" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2494,6 +3587,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
